--- a/biology/Médecine/District_hospitalier_de_Finlande_centrale/District_hospitalier_de_Finlande_centrale.xlsx
+++ b/biology/Médecine/District_hospitalier_de_Finlande_centrale/District_hospitalier_de_Finlande_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier de Finlande centrale (finnois : Keski-Suomen sairaanhoitopiiri, sigle KSSHP) est un district hospitalier de la Finlande centrale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier de Finlande centrale (finnois : Keski-Suomen sairaanhoitopiiri, sigle KSSHP) est un district hospitalier de la Finlande centrale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin 2016, le district emploie 3 643 personnes, dont 469 médecins, 2 156 soignants et 1 467 autres personnes[2]. 
-Les dépenses de l'année 2016 s'élevaient à 349,4 millions d'euros[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin 2016, le district emploie 3 643 personnes, dont 469 médecins, 2 156 soignants et 1 467 autres personnes. 
+Les dépenses de l'année 2016 s'élevaient à 349,4 millions d'euros.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste des municipalités membres de KSSHP est[2]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des municipalités membres de KSSHP est:
 Hankasalmi
 Joutsa
 Jyväskylä
@@ -595,9 +611,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les établissements hospitaliers de KSSHP sont[2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les établissements hospitaliers de KSSHP sont:
 Hôpital universitaire de Kuopio
 Hôpital central de Finlande centrale</t>
         </is>
